--- a/debug_exp_output/llama3.2-1B-common-date-eos-sft/common/base_n=100_prompt=no_w-gen_wo-icl_increment.xlsx
+++ b/debug_exp_output/llama3.2-1B-common-date-eos-sft/common/base_n=100_prompt=no_w-gen_wo-icl_increment.xlsx
@@ -531,7 +531,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1856</t>
+          <t>1853</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -541,16 +541,16 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4210526347160339</v>
+        <v>0.3684210479259491</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -585,7 +585,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1902</t>
+          <t>1908</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -595,16 +595,16 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3181818127632141</v>
+        <v>0.2727272808551788</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -639,7 +639,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1909</t>
+          <t>1913</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -649,10 +649,10 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -693,32 +693,32 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1976</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4583333432674408</v>
+        <v>0.375</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6">
@@ -747,32 +747,32 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4000000357627869</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2692307829856873</v>
+        <v>0.2307692468166351</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -855,32 +855,32 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1964</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6000000238418579</v>
+        <v>0.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9">
@@ -909,7 +909,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>1991</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -919,16 +919,16 @@
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J9" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2000000029802322</v>
+        <v>0.1500000059604645</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3703703880310059</v>
+        <v>0.2962962985038757</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1953</t>
+          <t>1954</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -1027,16 +1027,16 @@
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J11" t="n">
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.210526317358017</v>
+        <v>0.1578947305679321</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1125,32 +1125,32 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3157894611358643</v>
+        <v>0.210526317358017</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="14">
@@ -1179,32 +1179,32 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3076923191547394</v>
+        <v>0.2307692468166351</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="15">
@@ -1233,20 +1233,20 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1255,10 +1255,10 @@
         <v>0.260869562625885</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="16">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1297,10 +1297,10 @@
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="17">
@@ -1341,32 +1341,32 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1904</t>
+          <t>1903</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.380952388048172</v>
+        <v>0.2857142984867096</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="18">
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2727272808551788</v>
+        <v>0.2272727340459824</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1449,32 +1449,32 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4090909361839294</v>
+        <v>0.3636363744735718</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="20">
@@ -1503,20 +1503,20 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         <v>0.4516128897666931</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1705</t>
+          <t>1931</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1567,10 +1567,10 @@
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>227</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>227</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="22">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1524</t>
+          <t>1522</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1624,13 +1624,13 @@
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4399999976158142</v>
+        <v>0.3999999761581421</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -1665,32 +1665,32 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1858</t>
+          <t>1857</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3076923191547394</v>
+        <v>0.2692307829856873</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="24">
@@ -1719,32 +1719,32 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1518</t>
+          <t>1517</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.4827586114406586</v>
+        <v>0.3793103396892548</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="25">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3076923191547394</v>
+        <v>0.2307692468166351</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1837,10 +1837,10 @@
         <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1918</t>
+          <t>1934</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1891,10 +1891,10 @@
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="28">
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.47826087474823</v>
+        <v>0.4347826242446899</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -1989,32 +1989,32 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.4210526347160339</v>
+        <v>0.3684210479259491</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="30">
@@ -2043,7 +2043,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -2053,16 +2053,16 @@
         <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0.4285714626312256</v>
+        <v>0.392857164144516</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0.2777777910232544</v>
+        <v>0.2222222238779068</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -2151,32 +2151,32 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1958</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="b">
         <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0.4545454680919647</v>
+        <v>0.3636363744735718</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="33">
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.2916666865348816</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0.3870967626571655</v>
+        <v>0.3548386991024017</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1969</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -2326,13 +2326,13 @@
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.2916666865348816</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -2367,32 +2367,32 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1805</t>
+          <t>1804</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.47826087474823</v>
+        <v>0.3913043439388275</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="37">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1910</t>
+          <t>1915</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -2431,16 +2431,16 @@
         <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.3076923191547394</v>
+        <v>0.3461538553237915</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1846</t>
+          <t>1857</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -2485,22 +2485,22 @@
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="39">
@@ -2529,32 +2529,32 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1858</t>
+          <t>1857</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="b">
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0.300000011920929</v>
+        <v>0.2000000029802322</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="40">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -2596,7 +2596,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1963</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -2647,16 +2647,16 @@
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0.4615384936332703</v>
+        <v>0.5</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1992</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -2704,13 +2704,13 @@
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0.4500000178813934</v>
+        <v>0.4000000059604645</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>1976</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -2755,10 +2755,10 @@
         <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J43" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -2818,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0.3636363744735718</v>
+        <v>0.4090909361839294</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1840</t>
+          <t>1842</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -2863,16 +2863,16 @@
         <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0.2857142984867096</v>
+        <v>0.25</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -2907,32 +2907,32 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1603</t>
+          <t>1602</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4000000059604645</v>
+        <v>0.3499999940395355</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="47">
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>0.3157894611358643</v>
+        <v>0.2631579041481018</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -3028,13 +3028,13 @@
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0.300000011920929</v>
+        <v>0.2333333492279053</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0.2631579041481018</v>
+        <v>0.210526317358017</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -3142,13 +3142,13 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0.380952388048172</v>
+        <v>0.2857142984867096</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="51">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1865</t>
+          <t>1867</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -3187,16 +3187,16 @@
         <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>0.4705882370471954</v>
+        <v>0.4411764740943909</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
@@ -3285,32 +3285,32 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1976</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>0.4583333432674408</v>
+        <v>0.375</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="54">
@@ -3339,20 +3339,20 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1927</t>
+          <t>1926</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -3361,10 +3361,10 @@
         <v>0.5</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -3393,7 +3393,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1069</t>
+          <t>1066</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -3403,16 +3403,16 @@
         <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>0.3599999845027924</v>
+        <v>0.2800000011920929</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1976</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -3457,16 +3457,16 @@
         <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>0.2631579041481018</v>
+        <v>0.210526317358017</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
@@ -3501,32 +3501,32 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1964</t>
+          <t>1963</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>0.5897436141967773</v>
+        <v>0.5384615659713745</v>
       </c>
       <c r="M57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="58">
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>0.4000000059604645</v>
+        <v>0.3499999940395355</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
@@ -3628,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>0.3157894611358643</v>
+        <v>0.2631579041481018</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>985</t>
+          <t>986</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -3673,16 +3673,16 @@
         <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>0.217391312122345</v>
+        <v>0.1739130467176437</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
@@ -3771,20 +3771,20 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1541</t>
+          <t>1540</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="b">
         <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0.5483870506286621</v>
       </c>
       <c r="M62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="63">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1120</t>
+          <t>1122</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -3835,10 +3835,10 @@
         <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0.3913043439388275</v>
+        <v>0.3478260934352875</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>0.5454545617103577</v>
+        <v>0.5151515007019043</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1992</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -3997,10 +3997,10 @@
         <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J66" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
@@ -4041,20 +4041,20 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1790</t>
+          <t>1789</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
@@ -4063,10 +4063,10 @@
         <v>0.4000000059604645</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>0.2222222238779068</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -4159,10 +4159,10 @@
         <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>1662</t>
+          <t>1604</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -4213,10 +4213,10 @@
         <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="J70" t="n">
-        <v>-98</v>
+        <v>-40</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -4257,32 +4257,32 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1908</t>
+          <t>1907</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0.4516128897666931</v>
+        <v>0.3870967626571655</v>
       </c>
       <c r="M71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="72">
@@ -4311,32 +4311,32 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>1973</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="b">
         <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>0.3030303120613098</v>
+        <v>0.2424242496490479</v>
       </c>
       <c r="M72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="73">
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>0.3870967626571655</v>
+        <v>0.3548386991024017</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
@@ -4419,7 +4419,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -4429,16 +4429,16 @@
         <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>0.3181818127632141</v>
+        <v>0.2727272808551788</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
@@ -4473,32 +4473,32 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1826</t>
+          <t>1825</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="b">
         <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>0.3599999845027924</v>
+        <v>0.2800000011920929</v>
       </c>
       <c r="M75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="76">
@@ -4527,7 +4527,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1750</t>
+          <t>1757</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -4537,16 +4537,16 @@
         <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>0.294117659330368</v>
+        <v>0.3529411852359772</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>1350</t>
+          <t>1356</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -4591,16 +4591,16 @@
         <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>0.4444444477558136</v>
+        <v>0.4074074029922485</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
@@ -4654,7 +4654,7 @@
         <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>0.4347826242446899</v>
+        <v>0.3478260934352875</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
@@ -4708,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>0.2962962985038757</v>
+        <v>0.2592592537403107</v>
       </c>
       <c r="M79" t="n">
         <v>0</v>
@@ -4762,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>0.25</v>
+        <v>0.2000000029802322</v>
       </c>
       <c r="M80" t="n">
         <v>0</v>
@@ -4797,32 +4797,32 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>1621</t>
+          <t>1620</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" t="b">
         <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>0.3461538553237915</v>
+        <v>0.2692307829856873</v>
       </c>
       <c r="M81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="82">
@@ -4851,32 +4851,32 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>1964</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K82" t="n">
         <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>0.3571428656578064</v>
+        <v>0.2857142984867096</v>
       </c>
       <c r="M82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="83">
@@ -4924,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>0.4210526347160339</v>
+        <v>0.3684210479259491</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>0.300000011920929</v>
+        <v>0.2000000029802322</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
@@ -5013,7 +5013,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1963</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -5023,16 +5023,16 @@
         <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J85" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K85" t="n">
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>0.1481481492519379</v>
+        <v>0.1111111119389534</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
@@ -5067,7 +5067,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1840</t>
+          <t>1850</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -5077,22 +5077,22 @@
         <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K86" t="n">
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>0.2222222238779068</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="87">
@@ -5121,7 +5121,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -5131,16 +5131,16 @@
         <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>0.3181818127632141</v>
+        <v>0.2272727340459824</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
@@ -5175,32 +5175,32 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>1954</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>0.4814814925193787</v>
+        <v>0.4074074029922485</v>
       </c>
       <c r="M88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="89">
@@ -5229,32 +5229,32 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1951</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>0.3529411852359772</v>
+        <v>0.2352941185235977</v>
       </c>
       <c r="M89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="90">
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>0.3214285969734192</v>
+        <v>0.25</v>
       </c>
       <c r="M90" t="n">
         <v>0</v>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>1996</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -5347,16 +5347,16 @@
         <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J91" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="K91" t="n">
         <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>0.3666666746139526</v>
+        <v>0.2666666805744171</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1991</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -5455,16 +5455,16 @@
         <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J93" t="n">
-        <v>-22</v>
+        <v>-23</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.2962962985038757</v>
       </c>
       <c r="M93" t="n">
         <v>0</v>
@@ -5518,7 +5518,7 @@
         <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="M94" t="n">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="M95" t="n">
         <v>0</v>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>1910</t>
+          <t>1919</t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -5725,10 +5725,10 @@
         <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
@@ -5769,7 +5769,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>1992</t>
         </is>
       </c>
       <c r="G99" t="n">
@@ -5779,16 +5779,16 @@
         <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>0.4000000357627869</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="M99" t="n">
         <v>0</v>
@@ -5842,7 +5842,7 @@
         <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>0.4705882370471954</v>
+        <v>0.4117647111415863</v>
       </c>
       <c r="M100" t="n">
         <v>0</v>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>1209</t>
+          <t>1096</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -5887,16 +5887,16 @@
         <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="J101" t="n">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="K101" t="n">
         <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>0.2631579041481018</v>
+        <v>0.210526317358017</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
